--- a/pred_ohlcv/54_21/2020-01-16 ETH ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-16 ETH ohlcv.xlsx
@@ -548,7 +548,7 @@
         <v>-1636.502166357573</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-2539.827257373427</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-2998.378757373427</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-3747.595257373427</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-2783.422657373427</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-2226.467457373427</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-1601.932543661283</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-1848.804143661283</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-1835.730243661282</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-1835.730243661282</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-1714.410643661282</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-1672.100643661282</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-1581.694275049847</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-1616.989775049847</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-1583.968875049847</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-1495.488675049847</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>-1569.122975049847</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>-1569.122975049847</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-1402.003575049847</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>-885.9175472076197</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>5716.398690229056</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>4888.679790229056</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>5291.691890229056</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>6281.020690229057</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>6642.741690229057</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>5918.207290229057</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>5695.22902617786</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>4600.349604316874</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>7470.187456666538</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>8981.35144209568</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>7857.77774209568</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>8344.99064209568</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>7798.93444209568</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>8476.775942095679</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>8603.406442095678</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>7996.812590130613</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>8223.687027254724</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>8046.009339061424</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>7758.601239061424</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>7895.807510047028</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>8028.131510047027</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>7831.426510433129</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>7084.520879827565</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -9518,7 +9518,7 @@
         <v>9156.755848813165</v>
       </c>
       <c r="H351">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -9544,7 +9544,7 @@
         <v>9141.926148813165</v>
       </c>
       <c r="H352">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -9570,7 +9570,7 @@
         <v>9160.115148813165</v>
       </c>
       <c r="H353">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -9596,7 +9596,7 @@
         <v>8890.734548813165</v>
       </c>
       <c r="H354">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -9622,7 +9622,7 @@
         <v>9316.116948813165</v>
       </c>
       <c r="H355">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -9648,7 +9648,7 @@
         <v>9293.206248813165</v>
       </c>
       <c r="H356">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -9674,7 +9674,7 @@
         <v>9160.271548813165</v>
       </c>
       <c r="H357">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -9700,7 +9700,7 @@
         <v>8986.594848813165</v>
       </c>
       <c r="H358">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -9726,7 +9726,7 @@
         <v>8986.594848813165</v>
       </c>
       <c r="H359">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -9752,7 +9752,7 @@
         <v>9071.178248813165</v>
       </c>
       <c r="H360">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -9778,7 +9778,7 @@
         <v>9157.524348813165</v>
       </c>
       <c r="H361">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -9804,7 +9804,7 @@
         <v>9198.839148813166</v>
       </c>
       <c r="H362">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -9830,7 +9830,7 @@
         <v>9198.839148813166</v>
       </c>
       <c r="H363">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -9856,7 +9856,7 @@
         <v>9300.885748813165</v>
       </c>
       <c r="H364">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -9882,7 +9882,7 @@
         <v>9300.885748813165</v>
       </c>
       <c r="H365">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -9908,7 +9908,7 @@
         <v>9521.262748813166</v>
       </c>
       <c r="H366">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -9934,7 +9934,7 @@
         <v>9524.029548813165</v>
       </c>
       <c r="H367">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -9960,7 +9960,7 @@
         <v>9621.639448813165</v>
       </c>
       <c r="H368">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -9986,7 +9986,7 @@
         <v>9711.264147062617</v>
       </c>
       <c r="H369">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -14042,7 +14042,7 @@
         <v>17089.12455656812</v>
       </c>
       <c r="H525">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="526" spans="1:8">
@@ -14068,7 +14068,7 @@
         <v>17554.89045656812</v>
       </c>
       <c r="H526">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="527" spans="1:8">
@@ -14094,7 +14094,7 @@
         <v>18008.87315908913</v>
       </c>
       <c r="H527">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="528" spans="1:8">
@@ -14120,7 +14120,7 @@
         <v>18486.78597403166</v>
       </c>
       <c r="H528">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="529" spans="1:8">
@@ -14146,7 +14146,7 @@
         <v>17588.21003319396</v>
       </c>
       <c r="H529">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="530" spans="1:8">
@@ -14172,7 +14172,7 @@
         <v>16898.88331025869</v>
       </c>
       <c r="H530">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="531" spans="1:8">
@@ -14198,7 +14198,7 @@
         <v>17378.42411757322</v>
       </c>
       <c r="H531">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="532" spans="1:8">
@@ -14224,7 +14224,7 @@
         <v>16901.19084890481</v>
       </c>
       <c r="H532">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="533" spans="1:8">
@@ -14250,7 +14250,7 @@
         <v>15857.033637409</v>
       </c>
       <c r="H533">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="534" spans="1:8">
@@ -14276,7 +14276,7 @@
         <v>16230.7417305512</v>
       </c>
       <c r="H534">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="535" spans="1:8">
@@ -14302,7 +14302,7 @@
         <v>15501.7512305512</v>
       </c>
       <c r="H535">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="536" spans="1:8">
@@ -14328,7 +14328,7 @@
         <v>14683.9535305512</v>
       </c>
       <c r="H536">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="537" spans="1:8">
@@ -14354,7 +14354,7 @@
         <v>13990.2806305512</v>
       </c>
       <c r="H537">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="538" spans="1:8">
@@ -14380,7 +14380,7 @@
         <v>13533.3030305512</v>
       </c>
       <c r="H538">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="539" spans="1:8">
@@ -14406,7 +14406,7 @@
         <v>13169.2895305512</v>
       </c>
       <c r="H539">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="540" spans="1:8">
@@ -23090,7 +23090,7 @@
         <v>12087.14436824638</v>
       </c>
       <c r="H873">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="874" spans="1:8">
@@ -23116,7 +23116,7 @@
         <v>12087.14436824638</v>
       </c>
       <c r="H874">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="875" spans="1:8">
@@ -23142,7 +23142,7 @@
         <v>11973.23166824638</v>
       </c>
       <c r="H875">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="876" spans="1:8">
@@ -23168,7 +23168,7 @@
         <v>11989.89216824638</v>
       </c>
       <c r="H876">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="877" spans="1:8">
@@ -23194,7 +23194,7 @@
         <v>11989.89216824638</v>
       </c>
       <c r="H877">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="878" spans="1:8">
@@ -23220,7 +23220,7 @@
         <v>11989.89216824638</v>
       </c>
       <c r="H878">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="879" spans="1:8">
@@ -23246,7 +23246,7 @@
         <v>12063.79656824638</v>
       </c>
       <c r="H879">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="880" spans="1:8">
@@ -23272,7 +23272,7 @@
         <v>12063.79656824638</v>
       </c>
       <c r="H880">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="881" spans="1:8">
@@ -23298,7 +23298,7 @@
         <v>12063.79656824638</v>
       </c>
       <c r="H881">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="882" spans="1:8">
@@ -23324,7 +23324,7 @@
         <v>12060.84016912599</v>
       </c>
       <c r="H882">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="883" spans="1:8">
@@ -23376,7 +23376,7 @@
         <v>12040.22046912598</v>
       </c>
       <c r="H884">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="885" spans="1:8">
@@ -23402,7 +23402,7 @@
         <v>12078.13546912599</v>
       </c>
       <c r="H885">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="886" spans="1:8">
@@ -23428,7 +23428,7 @@
         <v>12078.13546912599</v>
       </c>
       <c r="H886">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="887" spans="1:8">
@@ -23454,7 +23454,7 @@
         <v>12072.57576912599</v>
       </c>
       <c r="H887">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="888" spans="1:8">
@@ -23480,7 +23480,7 @@
         <v>12072.57576912599</v>
       </c>
       <c r="H888">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="889" spans="1:8">
@@ -23506,7 +23506,7 @@
         <v>12063.48016912599</v>
       </c>
       <c r="H889">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="890" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-16 ETH ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-16 ETH ohlcv.xlsx
@@ -548,7 +548,7 @@
         <v>-1636.502166357573</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-2539.827257373427</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-2998.378757373427</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-3747.595257373427</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-2783.422657373427</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-2226.467457373427</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-2147.405035177442</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-2147.405035177442</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-1934.153781155128</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-1605.447481155128</v>
       </c>
       <c r="H16">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-1715.16466933855</v>
       </c>
       <c r="H24">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-1821.02746933855</v>
       </c>
       <c r="H28">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-1821.02746933855</v>
       </c>
       <c r="H29">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-1601.932543661283</v>
       </c>
       <c r="H48">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-1601.932543661283</v>
       </c>
       <c r="H49">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-1848.804143661283</v>
       </c>
       <c r="H50">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-1835.730243661282</v>
       </c>
       <c r="H51">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-1835.730243661282</v>
       </c>
       <c r="H52">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-1616.989775049847</v>
       </c>
       <c r="H56">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>-885.9175472076197</v>
       </c>
       <c r="H62">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>5716.398690229056</v>
       </c>
       <c r="H109">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>4888.679790229056</v>
       </c>
       <c r="H110">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>5291.691890229056</v>
       </c>
       <c r="H111">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>6281.020690229057</v>
       </c>
       <c r="H112">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>6642.741690229057</v>
       </c>
       <c r="H113">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>5918.207290229057</v>
       </c>
       <c r="H114">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>5695.22902617786</v>
       </c>
       <c r="H115">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>4600.349604316874</v>
       </c>
       <c r="H116">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>7470.187456666538</v>
       </c>
       <c r="H139">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>8981.35144209568</v>
       </c>
       <c r="H140">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>7857.77774209568</v>
       </c>
       <c r="H141">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>8344.99064209568</v>
       </c>
       <c r="H142">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>7798.93444209568</v>
       </c>
       <c r="H143">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>8476.775942095679</v>
       </c>
       <c r="H144">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>8603.406442095678</v>
       </c>
       <c r="H145">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>7996.812590130613</v>
       </c>
       <c r="H146">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>8223.687027254724</v>
       </c>
       <c r="H147">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>8046.009339061424</v>
       </c>
       <c r="H148">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>7758.601239061424</v>
       </c>
       <c r="H149">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>7895.807510047028</v>
       </c>
       <c r="H150">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>8028.131510047027</v>
       </c>
       <c r="H151">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>7831.426510433129</v>
       </c>
       <c r="H155">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>7084.520879827565</v>
       </c>
       <c r="H180">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -9518,7 +9518,7 @@
         <v>9156.755848813165</v>
       </c>
       <c r="H351">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -9544,7 +9544,7 @@
         <v>9141.926148813165</v>
       </c>
       <c r="H352">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -9570,7 +9570,7 @@
         <v>9160.115148813165</v>
       </c>
       <c r="H353">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -9596,7 +9596,7 @@
         <v>8890.734548813165</v>
       </c>
       <c r="H354">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -9622,7 +9622,7 @@
         <v>9316.116948813165</v>
       </c>
       <c r="H355">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -9648,7 +9648,7 @@
         <v>9293.206248813165</v>
       </c>
       <c r="H356">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -9674,7 +9674,7 @@
         <v>9160.271548813165</v>
       </c>
       <c r="H357">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -9700,7 +9700,7 @@
         <v>8986.594848813165</v>
       </c>
       <c r="H358">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -9726,7 +9726,7 @@
         <v>8986.594848813165</v>
       </c>
       <c r="H359">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -9752,7 +9752,7 @@
         <v>9071.178248813165</v>
       </c>
       <c r="H360">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -9778,7 +9778,7 @@
         <v>9157.524348813165</v>
       </c>
       <c r="H361">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -9804,7 +9804,7 @@
         <v>9198.839148813166</v>
       </c>
       <c r="H362">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -9830,7 +9830,7 @@
         <v>9198.839148813166</v>
       </c>
       <c r="H363">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -9856,7 +9856,7 @@
         <v>9300.885748813165</v>
       </c>
       <c r="H364">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -9882,7 +9882,7 @@
         <v>9300.885748813165</v>
       </c>
       <c r="H365">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -9908,7 +9908,7 @@
         <v>9521.262748813166</v>
       </c>
       <c r="H366">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -9934,7 +9934,7 @@
         <v>9524.029548813165</v>
       </c>
       <c r="H367">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -9960,7 +9960,7 @@
         <v>9621.639448813165</v>
       </c>
       <c r="H368">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -9986,7 +9986,7 @@
         <v>9711.264147062617</v>
       </c>
       <c r="H369">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -13834,7 +13834,7 @@
         <v>15683.78185220833</v>
       </c>
       <c r="H517">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="518" spans="1:8">
@@ -13860,7 +13860,7 @@
         <v>15480.72818094893</v>
       </c>
       <c r="H518">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="519" spans="1:8">
@@ -13886,7 +13886,7 @@
         <v>15322.04898094893</v>
       </c>
       <c r="H519">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="520" spans="1:8">
@@ -13912,7 +13912,7 @@
         <v>14788.38138094893</v>
       </c>
       <c r="H520">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="521" spans="1:8">
@@ -13938,7 +13938,7 @@
         <v>15408.66234623555</v>
       </c>
       <c r="H521">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="522" spans="1:8">
@@ -13964,7 +13964,7 @@
         <v>16045.08679227767</v>
       </c>
       <c r="H522">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="523" spans="1:8">
@@ -13990,7 +13990,7 @@
         <v>17229.28925880797</v>
       </c>
       <c r="H523">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="524" spans="1:8">
@@ -14016,7 +14016,7 @@
         <v>16320.89650556601</v>
       </c>
       <c r="H524">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="525" spans="1:8">
@@ -14042,7 +14042,7 @@
         <v>17089.12455656812</v>
       </c>
       <c r="H525">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="526" spans="1:8">
@@ -14068,7 +14068,7 @@
         <v>17554.89045656812</v>
       </c>
       <c r="H526">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="527" spans="1:8">
@@ -14094,7 +14094,7 @@
         <v>18008.87315908913</v>
       </c>
       <c r="H527">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="528" spans="1:8">
@@ -14120,7 +14120,7 @@
         <v>18486.78597403166</v>
       </c>
       <c r="H528">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="529" spans="1:8">
@@ -14146,7 +14146,7 @@
         <v>17588.21003319396</v>
       </c>
       <c r="H529">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="530" spans="1:8">
@@ -14172,7 +14172,7 @@
         <v>16898.88331025869</v>
       </c>
       <c r="H530">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="531" spans="1:8">
@@ -14198,7 +14198,7 @@
         <v>17378.42411757322</v>
       </c>
       <c r="H531">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="532" spans="1:8">
@@ -14224,7 +14224,7 @@
         <v>16901.19084890481</v>
       </c>
       <c r="H532">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="533" spans="1:8">
@@ -14250,7 +14250,7 @@
         <v>15857.033637409</v>
       </c>
       <c r="H533">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="534" spans="1:8">
@@ -14276,7 +14276,7 @@
         <v>16230.7417305512</v>
       </c>
       <c r="H534">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="535" spans="1:8">
@@ -14302,7 +14302,7 @@
         <v>15501.7512305512</v>
       </c>
       <c r="H535">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="536" spans="1:8">
@@ -14328,7 +14328,7 @@
         <v>14683.9535305512</v>
       </c>
       <c r="H536">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="537" spans="1:8">
@@ -14354,7 +14354,7 @@
         <v>13990.2806305512</v>
       </c>
       <c r="H537">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="538" spans="1:8">
@@ -14380,7 +14380,7 @@
         <v>13533.3030305512</v>
       </c>
       <c r="H538">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="539" spans="1:8">
@@ -14406,7 +14406,7 @@
         <v>13169.2895305512</v>
       </c>
       <c r="H539">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="540" spans="1:8">
@@ -14432,7 +14432,7 @@
         <v>12336.2302305512</v>
       </c>
       <c r="H540">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="541" spans="1:8">
@@ -14458,7 +14458,7 @@
         <v>10972.50774120186</v>
       </c>
       <c r="H541">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="542" spans="1:8">
@@ -14484,7 +14484,7 @@
         <v>10263.78774120186</v>
       </c>
       <c r="H542">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="543" spans="1:8">
@@ -23090,7 +23090,7 @@
         <v>12087.14436824638</v>
       </c>
       <c r="H873">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="874" spans="1:8">
@@ -23116,7 +23116,7 @@
         <v>12087.14436824638</v>
       </c>
       <c r="H874">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="875" spans="1:8">
@@ -23142,7 +23142,7 @@
         <v>11973.23166824638</v>
       </c>
       <c r="H875">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="876" spans="1:8">
@@ -23168,7 +23168,7 @@
         <v>11989.89216824638</v>
       </c>
       <c r="H876">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="877" spans="1:8">
@@ -23194,7 +23194,7 @@
         <v>11989.89216824638</v>
       </c>
       <c r="H877">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="878" spans="1:8">
@@ -23220,7 +23220,7 @@
         <v>11989.89216824638</v>
       </c>
       <c r="H878">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="879" spans="1:8">
@@ -23246,7 +23246,7 @@
         <v>12063.79656824638</v>
       </c>
       <c r="H879">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="880" spans="1:8">
@@ -23272,7 +23272,7 @@
         <v>12063.79656824638</v>
       </c>
       <c r="H880">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="881" spans="1:8">
@@ -23298,7 +23298,7 @@
         <v>12063.79656824638</v>
       </c>
       <c r="H881">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="882" spans="1:8">
@@ -23324,7 +23324,7 @@
         <v>12060.84016912599</v>
       </c>
       <c r="H882">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="883" spans="1:8">
@@ -23376,7 +23376,7 @@
         <v>12040.22046912598</v>
       </c>
       <c r="H884">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="885" spans="1:8">
@@ -23402,7 +23402,7 @@
         <v>12078.13546912599</v>
       </c>
       <c r="H885">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="886" spans="1:8">
@@ -23428,7 +23428,7 @@
         <v>12078.13546912599</v>
       </c>
       <c r="H886">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="887" spans="1:8">
@@ -23454,7 +23454,7 @@
         <v>12072.57576912599</v>
       </c>
       <c r="H887">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="888" spans="1:8">
@@ -23480,7 +23480,7 @@
         <v>12072.57576912599</v>
       </c>
       <c r="H888">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="889" spans="1:8">
@@ -23506,7 +23506,7 @@
         <v>12063.48016912599</v>
       </c>
       <c r="H889">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="890" spans="1:8">
